--- a/KCORv3.xlsx
+++ b/KCORv3.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03983A5-A60E-42A6-B00C-EEB6D473AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47613C9-F277-4DF3-952E-D7EB189B13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
   </bookViews>
   <sheets>
-    <sheet name="KCOR v3 basis" sheetId="1" r:id="rId1"/>
+    <sheet name="KCOR v3 sim perfect data" sheetId="1" r:id="rId1"/>
+    <sheet name="Exponential example" sheetId="4" r:id="rId2"/>
+    <sheet name="Linear example" sheetId="3" r:id="rId3"/>
+    <sheet name="Why it works" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,30 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Deaths per week</t>
   </si>
@@ -102,30 +83,6 @@
     <t>value and the number of weeks.</t>
   </si>
   <si>
-    <t>the adjacent cum ratio is the most accurate because it stays steady esp as numbers get bigger</t>
-  </si>
-  <si>
-    <t>The complicated way with linear regression.</t>
-  </si>
-  <si>
-    <t>Normalized death curve</t>
-  </si>
-  <si>
-    <t>ln(A)</t>
-  </si>
-  <si>
-    <t>ln(B)</t>
-  </si>
-  <si>
-    <t>Fit params</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>intercept</t>
-  </si>
-  <si>
     <t>OK. Cum ratio could be climbing or falling so x will be negative or positive</t>
   </si>
   <si>
@@ -133,6 +90,30 @@
   </si>
   <si>
     <t>1. take the ln of the two points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the adjacent cum ratio is the most accurate because it stays steady </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Deaths/wk</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Deaths(t)=a*t+b</t>
+  </si>
+  <si>
+    <t>Deaths(t)=b*exp(a*t)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +269,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KCOR v3 basis'!$D$4:$D$15</c:f>
+              <c:f>'KCOR v3 sim perfect data'!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -605,7 +586,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KCOR v3 basis'!$H$4:$H$15</c:f>
+              <c:f>'KCOR v3 sim perfect data'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -825,6 +806,852 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exponential example'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exponential example'!$A$7:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exponential example'!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39681276593482423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39365092802211404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39051428390316367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38740263283167903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38431577566092928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38125351483100184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37821565435615845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37520199981229185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37221235832448235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36924653855465434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36630435068933026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36338560642748241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36049011896848188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35761770300014289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.354768174686863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35194135165785756</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34913705299548775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34635509922368202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34359531229644935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C03D-4112-AC3D-55F7BB55B0F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1240196048"/>
+        <c:axId val="1240212848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1240196048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240212848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1240212848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240196048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear example'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Linear example'!$A$7:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linear example'!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39536423841059604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39078947368421052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38627450980392158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3774193548387097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36878980891719743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36455696202531646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36037735849056601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35217391304347828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34814814814814815</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34417177914110431</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34024390243902441</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3325301204819277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32874251497005991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32130177514792901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1EC0-4044-A9CE-CB93DBD2EB86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1240196048"/>
+        <c:axId val="1240212848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1240196048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240212848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1240212848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240196048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -905,6 +1732,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1937,452 +2844,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D7FF9-713A-4340-9996-BCE884F38A10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9499600" y="228600"/>
-          <a:ext cx="5137150" cy="2127250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Note each person dies on </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> with a constant slope.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> you take the ratio of the deaths per week, it changes even if there is NOTHING going on. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>MR and ASMR are similar. It's not adjusting for the slope which is what matters.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Bottom line</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Taking ratio of deaths/wk , MR /wk, ASMR/wk, and even cum deaths/wk is WRONG.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>all these approaches give a ratio that varies over time with this simple PERFECT example.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>KCOR requires that they be a constant (flat slope)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE26A5B-293C-447F-9EC1-D5ADE3D76E13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10928350" y="3613150"/>
-          <a:ext cx="5175250" cy="4483100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>using linear regression works great. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>You can</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> calculate from the unvaxxed data.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the problem is that you can't measure the true mortality of the vaccinated group because they are ALREADY vaccinated.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>So you have to calculate it.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>You do that by calculating the unvaxxed CMR post enrollment. Then you subtract that from the population. You use the pre-vaccine population mortality as the baseline, subtract out the population and mortality of the unvaccinated and you are left with the baseline mortality of your vaccinated cohort. So if the vaccine immediately lowers or raises ACM, you'll know it.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>You have to do this for each age.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>So you must calculate BOTH the expected starting deaths/week AND the slope of the deaths/week. Use BOTH to normalize the vaccinated cohort.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>But use only the SLOPE to normalize the unvaccinated cohort.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Note that just trying to normalize the slope of the cum death ratio won't work because the COVID shots create outsized mortality slopes soon after the shots are given. So you can't just divide out the slope.  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>377824</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
+      <xdr:colOff>501649</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2414,13 +3919,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>339724</xdr:colOff>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>374649</xdr:colOff>
+      <xdr:colOff>577849</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -2451,16 +3956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2475,8 +3980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858250" y="8413750"/>
-          <a:ext cx="7791450" cy="4013200"/>
+          <a:off x="10267950" y="184150"/>
+          <a:ext cx="6610350" cy="4826000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2611,6 +4116,183 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593724</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6B72B3-61E0-45DA-9D32-EC4C45BDA3AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593724</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF6A3C9-1EC7-2797-A223-BE124BDDD6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825B2A97-066B-2942-7A29-E049A96784EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279401" y="0"/>
+          <a:ext cx="8293100" cy="7859985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81145</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>61950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A609EB47-E2F5-532A-1E84-1D02C244ABA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="425450" y="7734300"/>
+          <a:ext cx="11238095" cy="12400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2618,8 +4300,8 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="jun 14 enroll"/>
       <sheetName val="KCOR v3"/>
-      <sheetName val="jun 14 enroll"/>
       <sheetName val="KCOR v3 basis"/>
       <sheetName val="matched Under 80"/>
       <sheetName val="HVE 1% simulation"/>
@@ -3121,10 +4803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695F242-FF56-4BE5-A65B-97F4411BF8D6}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3625,583 +5307,841 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-      <c r="C22">
-        <v>400</v>
-      </c>
-      <c r="D22">
-        <f>B22/C22</f>
-        <v>0.5</v>
-      </c>
-      <c r="E22">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>LN(B22)</f>
-        <v>5.2983173665480363</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G33" si="4">LN(C22)</f>
-        <v>5.9914645471079817</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" cm="1">
-        <f t="array" ref="J22:J23">TRANSPOSE(LINEST(F22:F31, E22:E31, TRUE, FALSE))</f>
-        <v>9.9503308531680608E-3</v>
-      </c>
-      <c r="L22" cm="1">
-        <f t="array" ref="L22:L23">TRANSPOSE(LINEST(G22:G31, E22:E31, TRUE, FALSE))</f>
-        <v>2.955880224154445E-2</v>
-      </c>
-      <c r="N22">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f>B22/EXP($N22*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P22">
-        <f>C22/EXP($N22*L$22)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <f>B22*(1+B$20/100)</f>
-        <v>202</v>
-      </c>
-      <c r="C23">
-        <f>C22*(1+C$20/100)</f>
-        <v>412</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D33" si="5">B23/C23</f>
-        <v>0.49029126213592233</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E33" si="6">A23</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F33" si="7">LN(B23)</f>
-        <v>5.3082676974012051</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>6.0210233493495267</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>5.2983173665480372</v>
-      </c>
-      <c r="L23">
-        <v>5.9914645471079817</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N33" si="8">A23</f>
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <f>B23/EXP($N23*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P23">
-        <f>C23/EXP($N23*L$22)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ref="B24:C33" si="9">B23*(1+B$20/100)</f>
-        <v>204.02</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="9"/>
-        <v>424.36</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>0.48077104345367144</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="7"/>
-        <v>5.318218028254373</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>6.0505821515910707</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <f>B24/EXP($N24*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P24">
-        <f>C24/EXP($N24*L$22)</f>
-        <v>399.99999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="9"/>
-        <v>206.06020000000001</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="9"/>
-        <v>437.0908</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
-        <v>0.47143568338660985</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="7"/>
-        <v>5.3281683591075408</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>6.0801409538326148</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <f>B25/EXP($N25*J$22)</f>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="P25">
-        <f>C25/EXP($N25*L$22)</f>
-        <v>399.99999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="9"/>
-        <v>208.120802</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="9"/>
-        <v>450.20352400000002</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
-        <v>0.46228159244706396</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="7"/>
-        <v>5.3381186899607087</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>6.1096997560741597</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <f>B26/EXP($N26*J$22)</f>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="P26">
-        <f>C26/EXP($N26*L$22)</f>
-        <v>399.99999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="9"/>
-        <v>210.20201001999999</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="9"/>
-        <v>463.70962972000001</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
-        <v>0.45330525084615009</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="7"/>
-        <v>5.3480690208138775</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>6.1392585583157038</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <f>B27/EXP($N27*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P27">
-        <f>C27/EXP($N27*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="9"/>
-        <v>212.3040301202</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="9"/>
-        <v>477.62091861160002</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>0.44450320714039965</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
-        <v>5.3580193516670453</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>6.1688173605572487</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <f>B28/EXP($N28*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P28">
-        <f>C28/EXP($N28*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="9"/>
-        <v>214.42707042140199</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="9"/>
-        <v>491.94954616994801</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
-        <v>0.43587207690466373</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="7"/>
-        <v>5.3679696825202132</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>6.1983761627987928</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O29">
-        <f>B29/EXP($N29*J$22)</f>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="P29">
-        <f>C29/EXP($N29*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="9"/>
-        <v>216.57134112561602</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="9"/>
-        <v>506.70803255504649</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
-        <v>0.42740854143078671</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
-        <v>5.3779200133733811</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>6.2279349650403377</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="O30">
-        <f>B30/EXP($N30*J$22)</f>
-        <v>200</v>
-      </c>
-      <c r="P30">
-        <f>C30/EXP($N30*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="9"/>
-        <v>218.73705453687217</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="9"/>
-        <v>521.90927353169786</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>0.41910934645154813</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="7"/>
-        <v>5.387870344226549</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>6.2574937672818818</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <f>B31/EXP($N31*J$22)</f>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="P31">
-        <f>C31/EXP($N31*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="9"/>
-        <v>220.9244250822409</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="9"/>
-        <v>537.56655173764887</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>0.41097130088938216</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="7"/>
-        <v>5.3978206750797177</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>6.2870525695234258</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="O32">
-        <f>B32/EXP($N32*J$22)</f>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="P32">
-        <f>C32/EXP($N32*L$22)</f>
-        <v>399.99999999999983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="9"/>
-        <v>223.13366933306332</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="9"/>
-        <v>553.69354828977839</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>0.40299127562939413</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="7"/>
-        <v>5.4077710059328856</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>6.3166113717649708</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="O33">
-        <f>B33/EXP($N33*J$22)</f>
-        <v>200.00000000000006</v>
-      </c>
-      <c r="P33">
-        <f>C33/EXP($N33*L$22)</f>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15770B8-5C1F-49DA-B792-3DD95471E2A3}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>B$4*EXP($A7*B$3)</f>
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C26" si="0">C$4*EXP($A7*C$3)</f>
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f>C7/B7</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:C26" si="1">B$4*EXP($A8*B$3)</f>
+        <v>1506.0120160160129</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>597.60479360639488</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D26" si="2">C8/B8</f>
+        <v>0.39681276593482423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1512.0481282564101</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>595.21914890223638</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.39365092802211404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1518.1084332991168</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>592.84302771715829</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.39051428390316367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1524.1930281091425</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>590.47639203317112</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.38740263283167903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1530.3020100401336</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>588.11920398405312</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.38431577566092928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1536.4354768359324</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>585.77142585474553</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.38125351483100184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>1542.5935266321376</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>583.43302008074807</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.37821565435615845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1548.7762579576774</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>581.10394924751859</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.37520199981229185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1554.9837697363855</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>578.78417608987388</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.37221235832448235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1561.2161612885823</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>576.47366349139395</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.36924653855465434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>1567.4735323326656</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>574.17237448382798</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.36630435068933026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>1573.7559829867059</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>571.88027224650284</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.36338560642748241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>1580.0636137700471</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>569.59732010573373</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.36049011896848188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>1586.3965256049169</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>567.32348153423777</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.35761770300014289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1592.7548198180396</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>565.05872015054922</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.354768174686863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1599.1385981422577</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>562.80299971843772</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.35194135165785756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1605.5479627181614</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>560.55628414632815</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.34913705299548775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1611.9830160957204</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>558.31853748672347</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.34635509922368202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1618.4438612359259</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>556.08972393562931</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.34359531229644935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD7ABE1-B671-4DE6-B878-76D7ACD181F3}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>B$3*$A7+B$4</f>
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C26" si="0">C$3*$A7+C$4</f>
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f>C7/B7</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:C26" si="1">B$3*$A8+B$4</f>
+        <v>1510</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D26" si="2">C8/B8</f>
+        <v>0.39536423841059604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1520</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.39078947368421052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1530</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.38627450980392158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1540</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.38181818181818183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1550</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.3774193548387097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1560</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>582</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.37307692307692308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>1570</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>579</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.36878980891719743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1580</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.36455696202531646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1590</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.36037735849056601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.35625000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>1610</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.35217391304347828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.34814814814814815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>1630</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>561</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.34417177914110431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>1640</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.34024390243902441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.33636363636363636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1660</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.3325301204819277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1670</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.32874251497005991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1690</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.32130177514792901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0044DAC-9327-4347-A077-58FEBE99EB03}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/KCORv3.xlsx
+++ b/KCORv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47613C9-F277-4DF3-952E-D7EB189B13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41AE986-4AA7-422F-B403-864A24D943D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
   </bookViews>
   <sheets>
     <sheet name="KCOR v3 sim perfect data" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>Deaths per week</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>cum deaths/week</t>
   </si>
@@ -53,19 +50,10 @@
     <t xml:space="preserve">the simpler way. </t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>adjacent</t>
   </si>
   <si>
     <t>cum ratio</t>
@@ -92,9 +80,6 @@
     <t>1. take the ln of the two points</t>
   </si>
   <si>
-    <t xml:space="preserve">the adjacent cum ratio is the most accurate because it stays steady </t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -114,6 +99,15 @@
   </si>
   <si>
     <t>Deaths(t)=b*exp(a*t)</t>
+  </si>
+  <si>
+    <t>so useexp( ln(x)-ln(y)/4)</t>
+  </si>
+  <si>
+    <t>ln(cum ratio)</t>
+  </si>
+  <si>
+    <t>so divide by number of items -1</t>
   </si>
 </sst>
 </file>
@@ -273,41 +267,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0606060606060606</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1230486685032139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1873834766396749</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.253667824416635</c:v>
+                  <c:v>5.892966194149805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3219607887928966</c:v>
+                  <c:v>5.7878417608987389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.392323236938136</c:v>
+                  <c:v>5.6845926390107886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.464817880481716</c:v>
+                  <c:v>5.5831853748672344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5395093314054042</c:v>
+                  <c:v>5.4835871116273687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6164641596298104</c:v>
+                  <c:v>5.3857655785826095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6957509523458651</c:v>
+                  <c:v>5.2896890807004961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7774403751442249</c:v>
+                  <c:v>5.1953264883552306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,45 +574,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KCOR v3 sim perfect data'!$H$4:$H$15</c:f>
+              <c:f>'KCOR v3 sim perfect data'!$H$7:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0301507537688441</c:v>
+                  <c:v>0.16817419373930909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.060806033466887</c:v>
+                  <c:v>0.16969586570864009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0919749497449369</c:v>
+                  <c:v>0.17123181971034243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1236667857778535</c:v>
+                  <c:v>0.17278219424118105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1558910006198118</c:v>
+                  <c:v>0.17434712917267578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1886572326257445</c:v>
+                  <c:v>0.17592676576491062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2219753029402729</c:v>
+                  <c:v>0.17752124668048283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2558552190554657</c:v>
+                  <c:v>0.17913071599859207</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2903071784387929</c:v>
+                  <c:v>0.18075531922927163</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3253415722326705</c:v>
+                  <c:v>0.18239520332776285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3609689890270196</c:v>
+                  <c:v>0.18405051670903422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,6 +4099,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>79043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342BCE41-5EE1-0E5D-7DB2-DC2F865DC87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051550" y="5524500"/>
+          <a:ext cx="9685714" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4805,524 +4837,860 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695F242-FF56-4BE5-A65B-97F4411BF8D6}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <f>B4/C4</f>
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f>B4</f>
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <f>C4</f>
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <f>F4/G4</f>
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>B4*(1+B$2/100)</f>
-        <v>204</v>
-      </c>
-      <c r="C5">
-        <f>C4*(1+C$2/100)</f>
-        <v>99</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D15" si="0">B5/C5</f>
-        <v>2.0606060606060606</v>
-      </c>
-      <c r="E5">
-        <f>D5/D4</f>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F5">
-        <f>B5+F4</f>
-        <v>404</v>
-      </c>
-      <c r="G5">
-        <f>C5+G4</f>
-        <v>199</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H15" si="1">F5/G5</f>
-        <v>2.0301507537688441</v>
-      </c>
-      <c r="I5">
-        <f>H5/H4</f>
-        <v>1.0150753768844221</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>B5*(1+B$2/100)</f>
-        <v>208.08</v>
-      </c>
-      <c r="C6">
-        <f>C5*(1+C$2/100)</f>
-        <v>98.01</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2.1230486685032139</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E15" si="2">D6/D5</f>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F6">
-        <f>B6+F5</f>
-        <v>612.08000000000004</v>
-      </c>
-      <c r="G6">
-        <f>C6+G5</f>
-        <v>297.01</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>2.060806033466887</v>
-      </c>
-      <c r="I6">
-        <f>H6/H5</f>
-        <v>1.0151000016334419</v>
+      <c r="J6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <f>B6*(1+B$2/100)</f>
-        <v>212.24160000000001</v>
+        <f>B$4*EXP($A7*B$3)</f>
+        <v>100</v>
       </c>
       <c r="C7">
-        <f>C6*(1+C$2/100)</f>
-        <v>97.029899999999998</v>
+        <f t="shared" ref="C7:C26" si="0">C$4*EXP($A7*C$3)</f>
+        <v>600</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2.1873834766396749</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
+        <f>C7/B7</f>
+        <v>6</v>
       </c>
       <c r="F7">
-        <f>B7+F6</f>
-        <v>824.32159999999999</v>
+        <f>B4</f>
+        <v>100</v>
       </c>
       <c r="G7">
-        <f>C7+G6</f>
-        <v>394.03989999999999</v>
+        <f>C4</f>
+        <v>600</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>2.0919749497449369</v>
-      </c>
-      <c r="I7">
-        <f>H7/H6</f>
-        <v>1.0151246239441636</v>
+        <f>F7/G7</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J7">
+        <f>LN(H7)</f>
+        <v>-1.791759469228055</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:C15" si="3">B7*(1+B$2/100)</f>
-        <v>216.48643200000001</v>
+        <f t="shared" ref="B8:C26" si="1">B$4*EXP($A8*B$3)</f>
+        <v>101.00501670841679</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
-        <v>96.059601000000001</v>
+        <f t="shared" si="0"/>
+        <v>595.21914890223638</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2.253667824416635</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030305</v>
+        <f t="shared" ref="D8:D26" si="2">C8/B8</f>
+        <v>5.892966194149805</v>
       </c>
       <c r="F8">
         <f>B8+F7</f>
-        <v>1040.8080319999999</v>
+        <v>201.0050167084168</v>
       </c>
       <c r="G8">
-        <f>C8+G7</f>
-        <v>490.09950099999998</v>
+        <f t="shared" ref="G8:G25" si="3">C8+G7</f>
+        <v>1195.2191489022364</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>2.1236667857778535</v>
+        <f t="shared" ref="H8:H26" si="4">F8/G8</f>
+        <v>0.16817419373930909</v>
       </c>
       <c r="I8">
         <f>H8/H7</f>
-        <v>1.0151492426029196</v>
+        <v>1.0090451624358545</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J26" si="5">LN(H8)</f>
+        <v>-1.7827549692588047</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>102.02013400267558</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>590.47639203317112</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>5.7878417608987389</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F25" si="6">B9+F8</f>
+        <v>303.02515071109235</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>220.81616064000002</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="3"/>
-        <v>95.099004989999997</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.3219607887928966</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F9">
-        <f>B9+F8</f>
-        <v>1261.6241926399998</v>
-      </c>
-      <c r="G9">
-        <f>C9+G8</f>
-        <v>585.19850598999994</v>
+        <v>1785.6955409354075</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>2.1558910006198118</v>
+        <f t="shared" si="4"/>
+        <v>0.16969586570864009</v>
       </c>
       <c r="I9">
-        <f>H9/H8</f>
-        <v>1.0151738563967583</v>
+        <f t="shared" ref="I9:I26" si="7">H9/H8</f>
+        <v>1.0090481894724572</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-1.7737474693920523</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>103.0454533953517</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>585.77142585474553</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5.6845926390107886</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>406.07060410644408</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>225.23248385280002</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>94.148014940099998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2.392323236938136</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F10">
-        <f>B10+F9</f>
-        <v>1486.8566764927998</v>
-      </c>
-      <c r="G10">
-        <f>C10+G9</f>
-        <v>679.34652093009993</v>
+        <v>2371.466966790153</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>2.1886572326257445</v>
+        <f t="shared" si="4"/>
+        <v>0.17123181971034243</v>
       </c>
       <c r="I10">
-        <f>H10/H9</f>
-        <v>1.0151984641136831</v>
+        <f t="shared" si="7"/>
+        <v>1.0090512163940371</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>-1.7647369697507882</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>104.08107741923882</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>581.10394924751859</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>5.5831853748672344</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>510.15168152568287</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>229.73713352985601</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>93.206534790698996</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2.464817880481716</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F11">
-        <f>B11+F10</f>
-        <v>1716.5938100226558</v>
-      </c>
-      <c r="G11">
-        <f>C11+G10</f>
-        <v>772.55305572079897</v>
+        <v>2952.5709160376719</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>2.2219753029402729</v>
+        <f t="shared" si="4"/>
+        <v>0.17278219424118105</v>
       </c>
       <c r="I11">
-        <f>H11/H10</f>
-        <v>1.0152230645428917</v>
+        <f t="shared" si="7"/>
+        <v>1.009054243150959</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-1.7557234705071916</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>105.12710963760242</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>576.47366349139395</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>5.4835871116273687</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>615.27879116328529</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>234.33187620045314</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>92.274469442792011</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2.5395093314054042</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F12">
-        <f>B12+F11</f>
-        <v>1950.9256862231089</v>
-      </c>
-      <c r="G12">
-        <f>C12+G11</f>
-        <v>864.82752516359096</v>
+        <v>3529.0445795290657</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>2.2558552190554657</v>
+        <f t="shared" si="4"/>
+        <v>0.17434712917267578</v>
       </c>
       <c r="I12">
-        <f>H12/H11</f>
-        <v>1.0152476564750115</v>
+        <f t="shared" si="7"/>
+        <v>1.0090572696936022</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-1.7467069718826154</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>106.18365465453596</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>571.88027224650284</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>5.3857655785826095</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>721.46244581782128</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>239.0185137244622</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>91.351724748364092</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.6164641596298104</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F13">
-        <f>B13+F12</f>
-        <v>2189.9441999475712</v>
-      </c>
-      <c r="G13">
-        <f>C13+G12</f>
-        <v>956.17924991195503</v>
+        <v>4100.9248517755686</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>2.2903071784387929</v>
+        <f t="shared" si="4"/>
+        <v>0.17592676576491062</v>
       </c>
       <c r="I13">
-        <f>H13/H12</f>
-        <v>1.0152722387023367</v>
+        <f t="shared" si="7"/>
+        <v>1.0090602959723549</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-1.7376874741475767</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>107.25081812542166</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>567.32348153423777</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>5.2896890807004961</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>828.71326394324296</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>243.79888399895145</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>90.438207500880452</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>2.6957509523458651</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1.0303030303030303</v>
-      </c>
-      <c r="F14">
-        <f>B14+F13</f>
-        <v>2433.7430839465228</v>
-      </c>
-      <c r="G14">
-        <f>C14+G13</f>
-        <v>1046.6174574128354</v>
+        <v>4668.2483333098062</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>2.3253415722326705</v>
+        <f t="shared" si="4"/>
+        <v>0.17752124668048283</v>
       </c>
       <c r="I14">
-        <f>H14/H13</f>
-        <v>1.0152968100190642</v>
+        <f t="shared" si="7"/>
+        <v>1.0090633219376233</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>-1.7286649776217391</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>108.32870676749586</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>562.80299971843772</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>5.1953264883552306</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>937.04197071073884</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>5231.0513330282438</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.17913071599859207</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>1.0090663475398305</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>-1.7196394826738941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>109.41742837052104</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>558.31853748672347</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>5.1026472272413983</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>1046.4593990812598</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>5789.3698705149673</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.18075531922927163</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>1.0090693727294224</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-1.7106109897219393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>110.51709180756477</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>553.86980783198146</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>5.011621268467632</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>1156.9764908888246</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>6343.2396783469485</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.18239520332776285</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>1.0090723974568692</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>-1.7015794992328523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>111.62780704588712</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>549.45652603399537</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>4.9222191188269866</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>1268.6042979347117</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>6892.6962043809435</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.18405051670903422</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>1.0090754216726674</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-1.6925450117226657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>112.74968515793758</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>545.07840964122374</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>4.8344118112408783</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>1381.3539830926493</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>248.67486167893048</v>
-      </c>
-      <c r="C15">
+        <v>7437.774614022167</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0.18572140926244696</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>1.009078445327346</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-1.6835075277564329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>113.88283833246217</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>540.73517845272283</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>4.7481708953735033</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>1495.2368214251114</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>89.53382542587164</v>
-      </c>
-      <c r="D15">
+        <v>7978.5097924748898</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.1874080323665677</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>1.0090814683714646</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>-1.6744670479481976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>115.02737988572274</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>2.7774403751442249</v>
-      </c>
-      <c r="E15">
+        <v>536.42655450021437</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="2"/>
-        <v>1.0303030303030305</v>
-      </c>
-      <c r="F15">
-        <f>B15+F14</f>
-        <v>2682.4179456254533</v>
-      </c>
-      <c r="G15">
-        <f>C15+G14</f>
-        <v>1136.1512828387069</v>
-      </c>
-      <c r="H15">
+        <v>4.6634684284136769</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>1610.2642013108341</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>8514.9363469751042</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0.18911053890413096</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>1.0090844907556213</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>-1.665423572960955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="1"/>
-        <v>2.3609689890270196</v>
-      </c>
-      <c r="I15">
-        <f>H15/H14</f>
-        <v>1.0153213692215297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I16" t="s">
+        <v>116.1834242728283</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>532.15226203029454</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>4.5802769660211196</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>1726.4476255836623</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>9047.0886090053991</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>0.19082908327715176</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>1.0090875124304521</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>-1.6563771035066146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>117.35108709918103</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>527.91202748678631</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>4.4985695534342476</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>1843.7987126828434</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>9575.0006364921846</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0.1925638214221907</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>1.009090533346636</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>-1.6473276403459556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>118.53048513203655</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>523.70557949323154</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>4.4183197167366002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>1962.32919781488</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>10098.706215985416</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0.19431491082577246</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>1.0090935534548962</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>-1.6382751842885832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>119.72173631218101</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>519.53264883552299</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>4.3395014542790546</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>2082.0509341270608</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>10618.238864820938</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0.19608251053995965</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>1.0090965727060033</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>-1.6292197361928811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>120.92495976572515</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>515.39296844467401</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>4.2620892282550624</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="8">B26+F25</f>
+        <v>2202.9758938927862</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="9">C26+G25</f>
+        <v>11133.631833265612</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0.19786678119808368</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>1.0090995910507807</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>-1.6201612969659582</v>
+      </c>
+      <c r="L26">
+        <f>EXP((J26-J7)/19)</f>
+        <v>1.0090723896482128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5704,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5346,12 +5714,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>4.0000000000000001E-3</v>
@@ -5362,7 +5730,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1500</v>
@@ -5373,16 +5741,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -5746,12 +6114,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5762,7 +6130,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1500</v>
@@ -5773,16 +6141,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -6135,7 +6503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0044DAC-9327-4347-A077-58FEBE99EB03}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>

--- a/KCORv3.xlsx
+++ b/KCORv3.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41AE986-4AA7-422F-B403-864A24D943D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B35C438-6BEA-4A1A-920E-60DC9727F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{46390E27-4C4A-404E-A2AD-A648134D3099}"/>
   </bookViews>
   <sheets>
     <sheet name="KCOR v3 sim perfect data" sheetId="1" r:id="rId1"/>
-    <sheet name="Exponential example" sheetId="4" r:id="rId2"/>
-    <sheet name="Linear example" sheetId="3" r:id="rId3"/>
-    <sheet name="Why it works" sheetId="2" r:id="rId4"/>
+    <sheet name="better way" sheetId="5" r:id="rId2"/>
+    <sheet name="Exponential example" sheetId="4" r:id="rId3"/>
+    <sheet name="Linear example" sheetId="3" r:id="rId4"/>
+    <sheet name="Why it works" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4145,10 +4146,235 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>455695</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>49436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7970785-9D0D-AB59-A1BE-A160DCC8871D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7270750" y="8655050"/>
+          <a:ext cx="12038095" cy="10914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51525F42-4B42-3C43-A0BA-3B8B001A8942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="596900"/>
+          <a:ext cx="10280650" cy="8420100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>exact method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>deaths(t)=b*exp(a*t)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>characterize pre-vax cohort two parameters. characteize by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>computing the a and b values of the regression line through the points</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>charterize post-vax unvaxed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2 parameters same way</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>derive the post vax vaxxed two parameter mathematically from the previous 2 steps.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>we can now "adjust" each raw value to take out the slope so people who were dying on a slope are now dying on a flat line.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>now do the ratio of the cum of the the adjusted values to find the answer.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>no, that wwon't work.... </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>You have to derive it from the values observed. Say there are 10,000 deaths a week that go up 1 death per week in the prevax period. Post vax, you observe 1000 deaths a week that go DOWN 1 death a week. So since population mortality is preserved, you basically take the pre-vax model, remove the unvaxxed deaths per observed. a Simple subtraction. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>then you can characterize each line (observed unvaxxed and derived vaxxed) with two parameters via exponential regression. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>then you apply the adjustment to the OBSERVED data for both.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>no, that wwon't work.... </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>You have to derive it from the values observed. Say there are 10,000 deaths a week that go up 1 death per week in the prevax period. Post vax, you observe 1000 deaths a week that go DOWN 1 death a week. So since population mortality is preserved, you basically take the pre-vax model, remove the unvaxxed deaths per observed. a Simple subtraction. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>then you can characterize each line (observed unvaxxed and derived vaxxed) with two parameters via exponential regression. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>then you apply the adjustment to the OBSERVED data for both.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4191,7 +4417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4232,7 +4458,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4837,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695F242-FF56-4BE5-A65B-97F4411BF8D6}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5700,6 +5926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C6D75-D905-4739-972D-0B01E0E5625D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15770B8-5C1F-49DA-B792-3DD95471E2A3}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -6099,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD7ABE1-B671-4DE6-B878-76D7ACD181F3}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -6499,7 +6740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0044DAC-9327-4347-A077-58FEBE99EB03}">
   <dimension ref="A1"/>
   <sheetViews>
